--- a/my-project/public/利用者Import.xlsx
+++ b/my-project/public/利用者Import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my-project\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dgs-medical\dgs-medical\my-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DC8EEB8-08C9-4DAB-8433-26BFD4F8ADFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20CF0DF7-2E14-4FAF-B2F8-FC901E7D57D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS3"/>
+  <dimension ref="A1:IS20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,6 +1761,142 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:253" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
